--- a/Input/ground_truth_capabilities.xlsx
+++ b/Input/ground_truth_capabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulan\Dropbox\Shared_IoT_Project_Kulani\AGENIOT\AgenIoT\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446930A2-071D-48D4-AA85-B37002D48275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7291BB7D-B517-45EC-83C1-E221A81F18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D2E86FD-FADA-4222-BF44-1C182FE1E1AD}"/>
   </bookViews>
@@ -35,6 +35,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3219E0C1-8DA1-4600-B708-2CDFB827BBC6}</author>
+    <author>tc={41AB329D-0290-48FD-AC0B-FFEB316A6A6F}</author>
+    <author>tc={BF5E8564-18F0-493B-B6B8-6CBBFECDF55F}</author>
+    <author>tc={83D83076-16D0-4D67-826A-B83C4730AB53}</author>
+  </authors>
+  <commentList>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{3219E0C1-8DA1-4600-B708-2CDFB827BBC6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    updated</t>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{41AB329D-0290-48FD-AC0B-FFEB316A6A6F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Represent remains</t>
+      </text>
+    </comment>
+    <comment ref="B71" authorId="2" shapeId="0" xr:uid="{BF5E8564-18F0-493B-B6B8-6CBBFECDF55F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Implies a remain</t>
+      </text>
+    </comment>
+    <comment ref="B73" authorId="3" shapeId="0" xr:uid="{83D83076-16D0-4D67-826A-B83C4730AB53}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Remains'</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="326">
   <si>
@@ -410,9 +455,6 @@
     <t>WhenCarArrives.txt.groovy</t>
   </si>
   <si>
-    <t>Ground_Truth</t>
-  </si>
-  <si>
     <t>switch, relativeHumidityMeasurement</t>
   </si>
   <si>
@@ -713,9 +755,6 @@
     <t>Turns switch on and off based on moisture sensor input.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Get notified if user is not moving around or not opened a door between  6 am and 11 am.</t>
-  </si>
-  <si>
     <t>Get notified if you're using too much energy</t>
   </si>
   <si>
@@ -740,9 +779,6 @@
     <t>Monitors a set of presence detectors and triggers a mode change when someone arrives at home.</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn a dimmer light on at a low level if light isnt on already after a few minutes when motion is detected. </t>
-  </si>
-  <si>
     <t>Set mode = Home when lock is unlocked with a specific code and when a person is arrived.</t>
   </si>
   <si>
@@ -785,15 +821,6 @@
     <t>Send a notification, if  Power (Wattage) draw from an Power Meter is greater than minimum to determine end of laundry cycle</t>
   </si>
   <si>
-    <t>Notifies you when you have left a door or window open longer than a specified amount of time.</t>
-  </si>
-  <si>
-    <t>Notifies you when you have left a door or window open for a longer than a specified amount of time.</t>
-  </si>
-  <si>
-    <t>Locks a door if left unlocked for a period of time. Check the door is closed before locking.</t>
-  </si>
-  <si>
     <t>If motion detected, turn on light. Turn off after 1 minute if no motion</t>
   </si>
   <si>
@@ -854,18 +881,12 @@
     <t>Set presence state of Nest thermostat to Home when you arrive and to Away when you leave.</t>
   </si>
   <si>
-    <t>Send a push or SMS notification if a door is left unlocked for a period of time.</t>
-  </si>
-  <si>
     <t>Notifies you as you leave that you left a door or window open.</t>
   </si>
   <si>
     <t>Get a text message sent to your phone when motion stops for more than 2 minute.</t>
   </si>
   <si>
-    <t>Turns on a switch when a contact sensor opens, turns off when closed or after given period</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uses a contactsensor  to toggle on and off a Light,  switch.  If contact closed turn on switch, else turn off. </t>
   </si>
   <si>
@@ -1014,6 +1035,114 @@
   </si>
   <si>
     <t>Opens specified garage door using a momentary switch and turns on lights when presence detected and the door is closed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Get notified if user is not moving around </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or not opened a door between  6 am and 11 am.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turn a dimmer light on at a low level if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">light isnt on already after a few minutes when motion is detected. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notifies you when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left a door or window open longer than a specified amount of time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notifies you when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left a door or window open for a longer than a specified amount of time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Locks a door if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left unlocked for a period of time. Check the door is closed before locking.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Send a push or SMS notification if a door is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left unlocked for a period of time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Turns on a switch when a contact sensor opens, turns off when closed or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after given period</t>
+    </r>
+  </si>
+  <si>
+    <t>Ground_Truth_Capabilities</t>
   </si>
 </sst>
 </file>
@@ -1044,12 +1173,11 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,8 +1190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1086,11 +1220,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1250,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,6 +1269,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kulani Mahadewa" id="{E0BDEEA8-E2DD-49BC-BA41-B59300ADCF9A}" userId="aecd3e6ea47ff398" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,18 +1592,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B34" dT="2024-05-23T13:05:12.97" personId="{E0BDEEA8-E2DD-49BC-BA41-B59300ADCF9A}" id="{3219E0C1-8DA1-4600-B708-2CDFB827BBC6}">
+    <text>updated</text>
+  </threadedComment>
+  <threadedComment ref="B50" dT="2024-05-23T13:33:36.69" personId="{E0BDEEA8-E2DD-49BC-BA41-B59300ADCF9A}" id="{41AB329D-0290-48FD-AC0B-FFEB316A6A6F}">
+    <text>Represent remains</text>
+  </threadedComment>
+  <threadedComment ref="B71" dT="2024-05-23T11:41:11.65" personId="{E0BDEEA8-E2DD-49BC-BA41-B59300ADCF9A}" id="{BF5E8564-18F0-493B-B6B8-6CBBFECDF55F}">
+    <text>Implies a remain</text>
+  </threadedComment>
+  <threadedComment ref="B73" dT="2024-05-23T11:23:30.18" personId="{E0BDEEA8-E2DD-49BC-BA41-B59300ADCF9A}" id="{83D83076-16D0-4D67-826A-B83C4730AB53}">
+    <text>Remains'</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32388649-8F29-4EE1-AEED-BCFE2C0E5563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32388649-8F29-4EE1-AEED-BCFE2C0E5563}">
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1456,1363 +1629,1363 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>124</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
+      <c r="B2" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>204</v>
+      <c r="B3" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
+      <c r="B4" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>206</v>
+      <c r="B5" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>207</v>
+      <c r="B6" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>208</v>
+      <c r="B7" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>209</v>
+      <c r="B8" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>210</v>
+      <c r="B9" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>211</v>
+      <c r="B10" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>212</v>
+      <c r="B11" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>213</v>
+      <c r="B12" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>214</v>
+      <c r="B13" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>215</v>
+      <c r="B14" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>216</v>
+      <c r="B15" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>217</v>
+      <c r="B16" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>218</v>
+      <c r="B17" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>219</v>
+      <c r="B18" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>220</v>
+      <c r="B19" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>221</v>
+      <c r="B20" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>222</v>
+      <c r="B21" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>223</v>
+      <c r="B22" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>224</v>
+      <c r="B23" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>225</v>
+      <c r="B24" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>226</v>
+      <c r="B25" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>227</v>
+      <c r="B26" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>228</v>
+      <c r="B27" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>229</v>
+      <c r="B28" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>230</v>
+      <c r="B29" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>231</v>
+      <c r="B30" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>232</v>
+      <c r="B31" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>233</v>
+      <c r="B32" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>234</v>
+      <c r="B33" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>235</v>
+      <c r="B34" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>236</v>
+      <c r="B35" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>237</v>
+      <c r="B36" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>238</v>
+      <c r="B37" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>239</v>
+      <c r="B38" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>240</v>
+      <c r="B39" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>241</v>
+      <c r="B40" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>242</v>
+      <c r="B41" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>243</v>
+      <c r="B42" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>244</v>
+      <c r="B43" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>245</v>
+      <c r="B44" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>246</v>
+      <c r="B45" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>247</v>
+      <c r="B46" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>248</v>
+      <c r="B47" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>249</v>
+      <c r="B48" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>250</v>
+      <c r="B49" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>251</v>
+      <c r="B50" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>252</v>
+      <c r="B51" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>253</v>
+      <c r="B52" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>254</v>
+      <c r="B53" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>255</v>
+      <c r="B54" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>256</v>
+      <c r="B55" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>257</v>
+      <c r="B56" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>258</v>
+      <c r="B57" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>259</v>
+      <c r="B58" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>260</v>
+      <c r="B59" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>261</v>
+      <c r="B60" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>262</v>
+      <c r="B61" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>263</v>
+      <c r="B62" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>264</v>
+      <c r="B63" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>265</v>
+      <c r="B64" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>266</v>
+      <c r="B65" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>267</v>
+      <c r="B66" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>268</v>
+      <c r="B67" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>269</v>
+      <c r="B68" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>270</v>
+      <c r="B69" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>271</v>
+      <c r="B70" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>272</v>
+      <c r="B71" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>273</v>
+      <c r="B72" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>274</v>
+      <c r="B73" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>275</v>
+      <c r="B74" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>276</v>
+      <c r="B75" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>277</v>
+      <c r="B76" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>278</v>
+      <c r="B77" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>279</v>
+      <c r="B78" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>280</v>
+      <c r="B79" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>281</v>
+      <c r="B80" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>282</v>
+      <c r="B81" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>283</v>
+      <c r="B82" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>284</v>
+      <c r="B83" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>285</v>
+      <c r="B84" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>286</v>
+      <c r="B85" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>287</v>
+      <c r="B86" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>288</v>
+      <c r="B87" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>289</v>
+      <c r="B88" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>290</v>
+      <c r="B89" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>291</v>
+      <c r="B90" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>292</v>
+      <c r="B91" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>293</v>
+      <c r="B92" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>294</v>
+      <c r="B93" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>295</v>
+      <c r="B94" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>296</v>
+      <c r="B95" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>297</v>
+      <c r="B96" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>298</v>
+      <c r="B97" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>299</v>
+      <c r="B98" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>300</v>
+      <c r="B99" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>301</v>
+      <c r="B100" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>302</v>
+      <c r="B101" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>303</v>
+      <c r="B102" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>304</v>
+      <c r="B103" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>305</v>
+      <c r="B104" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>306</v>
+      <c r="B105" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>307</v>
+      <c r="B106" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>308</v>
+      <c r="B107" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>309</v>
+      <c r="B108" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>310</v>
+      <c r="B109" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>311</v>
+      <c r="B110" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>312</v>
+      <c r="B111" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>313</v>
+      <c r="B112" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>314</v>
+      <c r="B113" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>315</v>
+      <c r="B114" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>316</v>
+      <c r="B115" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>317</v>
+      <c r="B116" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>318</v>
+      <c r="B117" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>319</v>
+      <c r="B118" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>320</v>
+      <c r="B119" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>321</v>
+      <c r="B120" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>322</v>
+      <c r="B121" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>323</v>
+      <c r="B122" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>324</v>
+      <c r="B123" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>325</v>
+      <c r="B124" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15">
@@ -2826,5 +2999,6 @@
     <sortCondition ref="A1:A128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>